--- a/Projektmanagement/Projekthandbuch.xlsx
+++ b/Projektmanagement/Projekthandbuch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/3. Jahr/Betriebstechnik/bet_projektmanagement/2. Projekt - IoT Sensorik/Projekt-IoT-Sensorik/Projektmanagement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linus\OneDrive - HTL Dornbirn\3. Jahr\Betriebstechnik\bet_projektmanagement\2. Projekt - IoT Sensorik\Projekt-IoT-Sensorik\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="8_{9EF3AD5D-3374-44D1-86F3-49C918A54A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF8B803-E1FF-4ED0-9F76-A7731D123F7A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Durchführende/r</t>
   </si>
   <si>
-    <t>Projektmanagement</t>
-  </si>
-  <si>
     <t>Progammierung von ESP32</t>
   </si>
   <si>
@@ -114,13 +111,82 @@
     <t>Simon Wallner</t>
   </si>
   <si>
-    <t>PTM1, PTM2</t>
-  </si>
-  <si>
     <t>PL, PTM1</t>
   </si>
   <si>
     <t>PL, PTM1, PTM2</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Projektstart</t>
+  </si>
+  <si>
+    <t>Projektende</t>
+  </si>
+  <si>
+    <t>Projektauftrag</t>
+  </si>
+  <si>
+    <t>Führung Projekthandbuch</t>
+  </si>
+  <si>
+    <t>PSP (Projektstrukturplan)</t>
+  </si>
+  <si>
+    <t>PUA (Projektumweltanalyse)</t>
+  </si>
+  <si>
+    <t>MSP (Projektmeilensteinplan)</t>
+  </si>
+  <si>
+    <t>PTP (Projektterminplan)</t>
+  </si>
+  <si>
+    <t>PFD (Projektfunktionendiagramm)</t>
+  </si>
+  <si>
+    <t>PRK (Projektrecourcen und -kalkulation)</t>
+  </si>
+  <si>
+    <t>PRM (Projektrisikomanagement)</t>
+  </si>
+  <si>
+    <t>PTM3</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>OSP</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>PUA</t>
+  </si>
+  <si>
+    <t>Organisatorisches</t>
+  </si>
+  <si>
+    <t>OSP (Objektstrukturplan)</t>
+  </si>
+  <si>
+    <t>Emirhan Özcan</t>
+  </si>
+  <si>
+    <t>Design Frontend</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
+    <t>Überfällig</t>
+  </si>
+  <si>
+    <t>Bei Pua ++ + - und -- für die beziehungen von intern und extern</t>
   </si>
 </sst>
 </file>
@@ -136,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +227,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -201,37 +279,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -317,45 +364,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,10 +452,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,149 +771,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC1067-A544-411D-A19F-B979816E400F}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="44.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16384" max="16384" width="9.28515625" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="2" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16384" max="16384" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
-      <c r="J1" s="15" t="s">
+      <c r="G1" s="1"/>
+      <c r="K1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45438</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>50</v>
       </c>
       <c r="D3">
         <v>50</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="J3" s="7" t="str">
+      <c r="K3" s="17" t="str">
         <f>INT(SUBSTITUTE(SUM(C3:C1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(C3:C1048576),"min",""),60)&amp;" min"</f>
-        <v>2 h 20 min</v>
-      </c>
-      <c r="K3" s="8" t="str">
-        <f t="shared" ref="K3:L3" si="0">INT(SUBSTITUTE(SUM(D3:D1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(D3:D1048576),"min",""),60)&amp;" min"</f>
-        <v>1 h 30 min</v>
-      </c>
-      <c r="L3" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1 h 0 min</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4 h 0 min</v>
+      </c>
+      <c r="L3" s="18" t="str">
+        <f>INT(SUBSTITUTE(SUM(D3:D1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(D3:D1048576),"min",""),60)&amp;" min"</f>
+        <v>3 h 10 min</v>
+      </c>
+      <c r="M3" s="19" t="str">
+        <f>INT(SUBSTITUTE(SUM(E3:E1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(E3:E1048576),"min",""),60)&amp;" min"</f>
+        <v>1 h 50 min</v>
+      </c>
+      <c r="N3" s="22" t="str">
+        <f>INT(SUBSTITUTE(SUM(F3:F1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(F3:F1048576),"min",""),60)&amp;" min"</f>
+        <v>1 h 40 min</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45415</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45435</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -860,25 +936,68 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45455</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A1048576">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:E1048576">
+  <conditionalFormatting sqref="C3:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -890,88 +1009,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA992464-F6C7-40EC-AF62-785696F71CD4}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
+        <v>45435</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45456</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45456</v>
+      </c>
+      <c r="E9" s="10">
+        <v>45401</v>
+      </c>
+      <c r="F9" s="10">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="26">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
+      <c r="E16" s="24"/>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projektmanagement/Projekthandbuch.xlsx
+++ b/Projektmanagement/Projekthandbuch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linus\OneDrive - HTL Dornbirn\3. Jahr\Betriebstechnik\bet_projektmanagement\2. Projekt - IoT Sensorik\Projekt-IoT-Sensorik\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/3. Jahr/Betriebstechnik/bet_projektmanagement/2. Projekt - IoT Sensorik/Projekt-IoT-Sensorik/Projektmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC9952B-F3EF-4EC1-B74A-2666EC3ADC6C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>Bei Pua ++ + - und -- für die beziehungen von intern und extern</t>
+  </si>
+  <si>
+    <t>OSP Fertigmachen</t>
+  </si>
+  <si>
+    <t>Einteilung und Führung PHB</t>
+  </si>
+  <si>
+    <t>Design fortsetzung</t>
   </si>
 </sst>
 </file>
@@ -240,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -360,17 +369,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -379,7 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,6 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -771,18 +792,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC1067-A544-411D-A19F-B979816E400F}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="2" customWidth="1"/>
     <col min="3" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="49.7109375" style="2" customWidth="1"/>
     <col min="8" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -795,60 +816,60 @@
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>45438</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C3">
@@ -860,28 +881,28 @@
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="K3" s="17" t="str">
+      <c r="K3" s="15" t="str">
         <f>INT(SUBSTITUTE(SUM(C3:C1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(C3:C1048576),"min",""),60)&amp;" min"</f>
-        <v>4 h 0 min</v>
-      </c>
-      <c r="L3" s="18" t="str">
+        <v>5 h 40 min</v>
+      </c>
+      <c r="L3" s="16" t="str">
         <f>INT(SUBSTITUTE(SUM(D3:D1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(D3:D1048576),"min",""),60)&amp;" min"</f>
-        <v>3 h 10 min</v>
-      </c>
-      <c r="M3" s="19" t="str">
+        <v>4 h 50 min</v>
+      </c>
+      <c r="M3" s="17" t="str">
         <f>INT(SUBSTITUTE(SUM(E3:E1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(E3:E1048576),"min",""),60)&amp;" min"</f>
-        <v>1 h 50 min</v>
-      </c>
-      <c r="N3" s="22" t="str">
+        <v>3 h 0 min</v>
+      </c>
+      <c r="N3" s="20" t="str">
         <f>INT(SUBSTITUTE(SUM(F3:F1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(F3:F1048576),"min",""),60)&amp;" min"</f>
-        <v>1 h 40 min</v>
+        <v>3 h 20 min</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>45415</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5">
@@ -901,7 +922,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6">
@@ -909,10 +930,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>45435</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -929,7 +950,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9">
@@ -937,7 +958,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10">
@@ -945,10 +966,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>45455</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C12">
@@ -956,7 +977,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C13">
@@ -964,15 +985,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E15">
@@ -980,11 +1001,70 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D16">
         <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45456</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1077,7 @@
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:F1048576">
+  <conditionalFormatting sqref="C3:F17 C18:E18 C19:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -1012,7 +1092,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,36 +1107,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>45435</v>
       </c>
       <c r="E2" t="s">
@@ -1081,35 +1161,35 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>45456</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="24">
         <v>45456</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>45456</v>
       </c>
     </row>
@@ -1120,7 +1200,7 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>45456</v>
       </c>
     </row>
@@ -1131,13 +1211,13 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>45456</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1148,13 +1228,13 @@
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>45456</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>45401</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>45457</v>
       </c>
     </row>
@@ -1165,18 +1245,18 @@
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>45456</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>45456</v>
       </c>
     </row>
@@ -1203,7 +1283,7 @@
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="21"/>
       <c r="F15" t="s">
         <v>47</v>
       </c>
@@ -1215,7 +1295,7 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" t="s">
         <v>48</v>
       </c>
@@ -1224,7 +1304,7 @@
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>45457</v>
       </c>
     </row>

--- a/Projektmanagement/Projekthandbuch.xlsx
+++ b/Projektmanagement/Projekthandbuch.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/3. Jahr/Betriebstechnik/bet_projektmanagement/2. Projekt - IoT Sensorik/Projekt-IoT-Sensorik/Projektmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC9952B-F3EF-4EC1-B74A-2666EC3ADC6C}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38EDB76-9C0C-400A-876F-C2B45E1EB42B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Überfällig</t>
-  </si>
-  <si>
-    <t>Bei Pua ++ + - und -- für die beziehungen von intern und extern</t>
   </si>
   <si>
     <t>OSP Fertigmachen</t>
@@ -436,13 +433,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -792,6 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC1067-A544-411D-A19F-B979816E400F}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -816,19 +814,19 @@
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -869,7 +867,7 @@
       <c r="A3" s="4">
         <v>45438</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C3">
@@ -1013,7 +1011,7 @@
         <v>45456</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -1029,7 +1027,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3">
         <v>30</v>
@@ -1061,7 +1059,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>40</v>
@@ -1089,10 +1087,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA992464-F6C7-40EC-AF62-785696F71CD4}">
-  <dimension ref="A1:H23"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,13 +1204,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="24">
         <v>45456</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1222,13 +1221,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="24">
         <v>45456</v>
       </c>
       <c r="E9" s="8">
@@ -1239,13 +1238,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="24">
         <v>45456</v>
       </c>
     </row>
@@ -1300,17 +1299,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="4">
         <v>45457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Projektmanagement/Projekthandbuch.xlsx
+++ b/Projektmanagement/Projekthandbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/3. Jahr/Betriebstechnik/bet_projektmanagement/2. Projekt - IoT Sensorik/Projekt-IoT-Sensorik/Projektmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38EDB76-9C0C-400A-876F-C2B45E1EB42B}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06A38DFD-EB43-423C-9E03-5CC10466D6EC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
   </bookViews>
@@ -434,10 +434,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -792,8 +792,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,19 +814,19 @@
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="1"/>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1067,8 +1067,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A1048576">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,13 +1193,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="24">
         <v>45456</v>
       </c>
     </row>
